--- a/Data/Transitions/19351959Translation.xlsx
+++ b/Data/Transitions/19351959Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="827">
   <si>
     <t>id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>{4.0: 1.0, 496.0: 0.0086292731496847}</t>
   </si>
   <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -94,13 +94,13 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,10 +163,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9895784953063307, 178.0: 0.008695627667129929, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.4452665911908995e-06}</t>
+    <t>{85.0: 0.9895402914516633, 178.0: 0.008741692524372261, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.34744081004416e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9618488000094441, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.038151199990555905, 858.0: 0.11121885973409691}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9618488000094441, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038151199990555905, 858.0: 0.10371055410031664}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
+    <t>{97.0: 0.9723237186088487}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 543.0: -8.786384890967674e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 543.0: -5.8976054398966166e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 543.0: 0.00045369001611514527}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 543.0: 0.0006939215173807665, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -253,13 +253,13 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9962324013484037, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
+    <t>{142.0: 0.9962324013484037, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
   </si>
   <si>
     <t>{145.0: 0.9978696743529367}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022369285492871666}</t>
+    <t>{152.0: 0.9280286630608138}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022648901561532565}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -295,7 +295,7 @@
     <t>{165.0: 1.0, 914.0: 0.019362745098039216, 110.0: 0.0026732489686181805}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 0.9994646680942184, 596.0: 0.9994646680942184}</t>
@@ -313,10 +313,10 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0026954824780397197, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0027291760090152163, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0024306208616427754, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.002432709592326763, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
   </si>
   <si>
     <t>{184.0: 0.9937868903386144}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.9011118598382749}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.9116096973347387}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,22 +370,22 @@
     <t>{206.0: 1.0, 578.0: 0.18204845814977974}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -406,19 +406,19 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002506265664160401, 503.0: 0.048680958673208055}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0025157232704402514, 503.0: 0.048910714816067735}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7384353461125667}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9990227217200097}</t>
+    <t>{249.0: 0.9990134418547293}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,22 +526,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 0.9983219820353371}</t>
@@ -559,7 +562,7 @@
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9562339628779037}</t>
+    <t>{277.0: 0.9562004156937055}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -571,7 +574,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239, 277.0: 0.003463745277607252}</t>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328, 277.0: 0.003463623760378881}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,10 +583,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 788.0: 0.026298366265383358}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 788.0: 0.026172626732387502}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127, 749.0: 0.0005137426149499101}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354, 749.0: 0.0005137426149499101}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285, 443.0: 0.013510568751361952}</t>
@@ -625,7 +628,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -634,19 +637,19 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9936860328937318, 142.0: 0.003767598651596272, 44.0: 7.58045374345196e-05}</t>
+    <t>{306.0: 0.9936860328937318, 142.0: 0.003767598651596272, 44.0: 7.498265547510774e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -667,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -676,22 +679,22 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.3591891979301202, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018911240424169227}</t>
+    <t>{402.0: 0.9983019057254231, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.5138231329303637, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019288581928823538}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,7 +703,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -709,7 +712,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6360005026944944, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.48129234385212344, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +721,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -733,40 +736,40 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
+    <t>{597.0: 0.13743568393910327}</t>
   </si>
   <si>
     <t>{423.0: 0.998298837538985}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -775,10 +778,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -808,13 +811,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -841,13 +844,13 @@
     <t>{489.0: 0.9861400416599904}</t>
   </si>
   <si>
-    <t>{490.0: 0.9974937343358395, 503.0: 0.007690879292109704}</t>
+    <t>{490.0: 0.9974842767295597, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
@@ -868,16 +871,16 @@
     <t>{499.0: 0.9532064834390416}</t>
   </si>
   <si>
-    <t>{500.0: 1.0, 277.0: 0.00025455449564166214}</t>
+    <t>{500.0: 1.0, 277.0: 0.00025454556520529897}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.459150730131028e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.458093304345013e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,10 +895,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.016173856462781022, 680.0: 0.0007025194449887987, 481.0: 1.3057803072405517e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.983826143537219}</t>
+    <t>{529.0: 1.0, 530.0: 0.016548865747358192, 680.0: 0.0007025194449887987, 481.0: 1.3057803072405517e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9834511342526419}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,16 +910,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,13 +931,13 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 0.9991442019683354, 975.0: 0.0007094515043562145}</t>
@@ -967,7 +970,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,10 +988,10 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104, 728.0: 0.002418704649287826}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495, 728.0: 0.002418704649287826}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -997,13 +1000,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1015,7 +1018,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,16 +1027,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597, 85.0: 0.005397362490856421, 178.0: 4.742772284122022e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.879118509395074e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007, 85.0: 0.0053971541192586485, 178.0: 4.767896994673605e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.8257623376204746e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1054,7 +1057,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1066,7 +1069,7 @@
     <t>{607.0: 1.0, 276.0: 0.0001938548027527382}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1123,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1147,19 +1150,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0011817950186500195}</t>
+    <t>{702.0: 0.0010744560484802531}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9933624952141614, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820654782199828, 171.0: 0.004721923759538046, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06, 212.0: 0.007649302086290667}</t>
+    <t>{681.0: 0.9819800735702071, 171.0: 0.004721923759538046, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06, 212.0: 0.0076493270976099636}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1177,7 +1180,7 @@
     <t>{686.0: 0.989437624892949}</t>
   </si>
   <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1198,19 +1201,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356, 857.0: 0.002407106197341186}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168, 857.0: 0.0024065353854721126}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2012909422220707}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7987090577779293}</t>
+    <t>{698.0: 0.43055025898790067}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5694497410120993}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,7 +1222,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8123152474620813}</t>
+    <t>{702.0: 0.8122887726510712}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1264,13 +1267,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.98670047817868, 145.0: 0.00021875111604375668, 544.0: 0.0008557980316645272, 975.0: 6.076672414185991e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9893451413832424, 145.0: 0.00021875111604375668, 544.0: 0.0008557980316645272, 975.0: 6.076672414185991e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1291,7 +1294,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1333,7 +1336,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1342,7 +1345,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1354,22 +1357,22 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2416378792924353e-06, 184.0: 0.006213109661385523}</t>
+    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2366292553340148e-06, 184.0: 0.006213109661385523}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1378,7 +1381,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.040079086164010985}</t>
+    <t>{788.0: -0.035008805891847364}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1393,16 +1396,16 @@
     <t>{833.0: 1.0, 17.0: 0.015233949945593036, 918.0: 0.0009159606136936112}</t>
   </si>
   <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
@@ -1411,7 +1414,7 @@
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.3037118039871105e-05}</t>
+    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.281008320521998e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -1420,7 +1423,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1432,25 +1435,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1459,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975697628520787, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{857.0: 0.997570339149132, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1471,7 +1474,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583}</t>
+    <t>{861.0: 0.6849891000612596}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1492,7 +1495,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1504,34 +1507,34 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0, 499.0: 0.04679351656095842}</t>
   </si>
   <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.9474228008305655}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1552,7 +1555,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8671799850093234e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.866737209157424e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1561,7 +1564,7 @@
     <t>{921.0: 0.9903586579251832, 686.0: 0.0105623751070511}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919, 887.0: 0.046750524109014674}</t>
+    <t>{922.0: 0.9965078673810798, 887.0: 0.046750524109014674}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1570,7 +1573,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1588,7 +1591,7 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.0009772782799902272, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 249.0: 0.000986558145270687, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
@@ -1600,7 +1603,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1609,16 +1612,16 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9880743598737285}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1630,10 +1633,10 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9992899408284024, 152.0: 0.07154402341844747}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9992899408284024, 152.0: 0.07154462475655347}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1657,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{4.0: 0.9952675646159448, 496.0: 0.004732435384055333}</t>
@@ -1726,7 +1729,7 @@
     <t>{82.0: 0.9987155701441416, 914.0: 0.0011614816447747813, 110.0: 0.00012294821108364552}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680973, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680973, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180958, 694.0: 0.011355364681904206}</t>
@@ -1741,10 +1744,10 @@
     <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 3.97767531321528e-07}</t>
   </si>
   <si>
-    <t>{91.0: 0.9628148011524467, 92.0: 0.004566266646967782, 104.0: 0.021051731640396542, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863925, 858.0: 0.12977877289055065}</t>
+    <t>{91.0: 0.962814801152447, 92.0: 0.004334749724608858, 104.0: 0.021283248562755458, 294.0: 0.0036045937888712597, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863936, 858.0: 0.12977877289055065}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1756,10 +1759,10 @@
     <t>{99.0: 0.9935367114788004, 230.0: 0.006463288521199586}</t>
   </si>
   <si>
-    <t>{107.0: 0.9991815856777492, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9818566632185153, 543.0: 0.0008042237438054801, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9991869092387435, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9818618944736835, 543.0: 0.0007989924886369114, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -1774,7 +1777,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273644}</t>
+    <t>{142.0: 0.9847119224187106, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1789,13 +1792,13 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.5686022157305419, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.5686022157305419, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9931010392105494, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1804,7 +1807,7 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9461440454101392, 404.0: 0.006089422657506929, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.001466275659824047}</t>
+    <t>{173.0: 0.9461505286921806, 404.0: 0.0060829393754654, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.001466275659824047}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457575, 502.0: 0.014713094654242278}</t>
@@ -1813,19 +1816,19 @@
     <t>{175.0: 0.9818551540747692, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.0001811776810530214}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00018071689469940593}</t>
   </si>
   <si>
     <t>{180.0: 0.999552572706935, 850.0: 0.00044742729306487713}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676936, 182.0: 0.003764544832306641}</t>
+    <t>{182.0: 0.9971634886605054, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.0035994764397905767}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -1849,7 +1852,7 @@
     <t>{206.0: 0.8017747931406644, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1867,7 +1870,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8416485635345015, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{627.0: 1.0}</t>
@@ -1876,7 +1879,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524383, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 1.0}</t>
@@ -1888,12 +1891,15 @@
     <t>{238.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2380261999689329, 241.0: 0.7619738000310673}</t>
+    <t>{240.0: 0.23802619996893296, 241.0: 0.7619738000310673}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{246.0: 0.9994262765347104, 46.0: 0.0005647897491488099, 681.0: 8.115747128531286e-06, 741.0: 8.179690123891223e-07}</t>
   </si>
   <si>
@@ -1912,7 +1918,7 @@
     <t>{262.0: 0.9992897727272729, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1921,13 +1927,13 @@
     <t>{267.0: 0.9888487040385775, 887.0: 0.011151295961422546}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.01235614765786211, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937941, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1939,7 +1945,7 @@
     <t>{281.0: 0.9619157530294289, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
   </si>
   <si>
-    <t>{282.0: 0.9865400946008591, 182.0: 0.003150627048625497, 277.0: 0.010309278350515464}</t>
+    <t>{282.0: 0.9864431721116683, 182.0: 0.003247549537816193, 277.0: 0.010309278350515464}</t>
   </si>
   <si>
     <t>{285.0: 0.9141291469502109, 311.0: 0.08587085304978907}</t>
@@ -1948,10 +1954,10 @@
     <t>{286.0: 0.8915562773711535, 909.0: 0.05587590947679708, 306.0: 0.008346234098404792, 788.0: 0.044221579053644745}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9856576766219582, 297.0: 0.013916655611733712, 749.0: 0.0004256677663083963}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9856591443139647, 297.0: 0.01391518791972656, 749.0: 0.0004256677663083963}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -1960,21 +1966,18 @@
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9980565642100954, 142.0: 0.0019138795084553575, 44.0: 2.955628144900518e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9980565642100954, 142.0: 0.0019137243927740508, 44.0: 2.971139713031199e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879629, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392752, 5.0: 0.05300183025736112, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 0.8644858180802012, 98.0: 0.04427483582506637, 532.0: 0.06500628755064972, 560.0: 0.026233058544082716}</t>
   </si>
   <si>
@@ -1993,10 +1996,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05695999999999999}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{404.0: 0.7774172615184941, 907.0: 0.22258273848150553}</t>
@@ -2005,7 +2008,7 @@
     <t>{414.0: 0.9969001859888406, 759.0: 0.00309981401115933}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -2017,7 +2020,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932027}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2029,7 +2032,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749246, 431.0: 0.0001868457494158738, 783.0: 0.00018839487565938215}</t>
+    <t>{430.0: 0.9992810498068839, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2056,7 +2059,7 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.924004401334336, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380016, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950447, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380016, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
@@ -2065,10 +2068,10 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720767471169999, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885336}</t>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9720767471169992, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885336}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2083,7 +2086,7 @@
     <t>{500.0: 0.9993798449612403, 277.0: 0.00062015503875969}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755824, 534.0: 0.0009418412997409932, 695.0: 0.0011700158119279725, 857.0: 7.285812748269429e-06}</t>
+    <t>{502.0: 0.9978808570755824, 534.0: 0.0009418412997409932, 695.0: 0.0011699865195521572, 857.0: 7.315105124084837e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2155,7 +2158,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9870836901367745, 752.0: 0.011803962810944783, 728.0: 0.0011123470522803114}</t>
+    <t>{580.0: 0.9873633900010385, 752.0: 0.011524262946681182, 728.0: 0.0011123470522803114}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -2176,7 +2179,7 @@
     <t>{593.0: 0.9966347398395028, 171.0: 0.0033652601604970233}</t>
   </si>
   <si>
-    <t>{593.0: 0.993238851288763, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108702e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.993238851288763, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108695e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774043}</t>
@@ -2188,7 +2191,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9960505529225913, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.9960505529225913, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621468, 475.0: 0.025141242937853105}</t>
@@ -2245,7 +2248,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852504, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.0425170068027211}</t>
@@ -2260,10 +2263,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.060155697098372284}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.00618856934838005}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076025, 857.0: 0.0062134502923976605}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2296,7 +2299,7 @@
     <t>{749.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894902, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2317,7 +2320,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.998972602739726, 493.0: 0.0010273972602739725}</t>
@@ -2335,7 +2338,7 @@
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2356,13 +2359,13 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336174, 486.0: 0.07468196059767147, 980.0: 0.01905143008418187}</t>
+    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336175, 486.0: 0.07468196059767147, 980.0: 0.01905143008418187}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807078, 423.0: 0.005179110919292188}</t>
   </si>
   <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415288, 606.0: 0.00433721875847113}</t>
@@ -2380,16 +2383,16 @@
     <t>{851.0: 0.762549468860654, 7.0: 0.23745053113934597}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290921, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8497991839662071, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455602, 976.0: 0.0026544401544401548}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9928112252580561, 695.0: 0.0071887747419441045}</t>
+    <t>{852.0: 0.9898358092259582, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8497991839662071, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919552, 695.0: 0.007258241308044793}</t>
   </si>
   <si>
     <t>{861.0: 1.0}</t>
@@ -2425,7 +2428,7 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377268e-07}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4117263642249505e-05, 502.0: 2.1081030824663275e-07}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478935}</t>
@@ -2440,7 +2443,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590235, 297.0: 0.005990275426909785, 695.0: 0.005083434427885524, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143604, 297.0: 0.005859444871573596, 695.0: 0.00508330715962968, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304318, 686.0: 0.013476598069568385}</t>
@@ -2449,13 +2452,13 @@
     <t>{922.0: 0.9315741024854247, 887.0: 0.06842589751457502}</t>
   </si>
   <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.7965677625520235e-06}</t>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
   </si>
   <si>
     <t>{932.0: 0.9982325910215625, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.9646124122504881, 249.0: 0.000951763603601863, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.9646053236437084, 249.0: 0.0009588522103814201, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.993501972615456, 5.0: 0.006498027384543977}</t>
@@ -2470,7 +2473,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16133961771190689}</t>
+    <t>{943.0: 0.7045586858250902, 634.0: 0.10993183872972913, 848.0: 0.18550947544518087}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -2849,7 +2852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C548"/>
+  <dimension ref="A1:C549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2896,7 +2899,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2907,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2918,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2929,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2951,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2962,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2973,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2995,7 +2998,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3017,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3028,7 +3031,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3050,7 +3053,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3072,7 +3075,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3127,7 +3130,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3149,7 +3152,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3182,7 +3185,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3314,7 +3317,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3336,7 +3339,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3380,7 +3383,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3391,7 +3394,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3402,7 +3405,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3435,7 +3438,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3446,7 +3449,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3457,7 +3460,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3468,7 +3471,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3479,7 +3482,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3490,7 +3493,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3501,7 +3504,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3545,7 +3548,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3556,7 +3559,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3567,7 +3570,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3633,7 +3636,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3644,7 +3647,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3655,7 +3658,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3666,7 +3669,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3688,7 +3691,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3699,7 +3702,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3710,7 +3713,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3721,7 +3724,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3732,7 +3735,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3743,7 +3746,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3776,7 +3779,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3809,7 +3812,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3820,7 +3823,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3853,7 +3856,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3864,7 +3867,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3875,7 +3878,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3908,7 +3911,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3930,7 +3933,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3941,7 +3944,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3952,7 +3955,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3985,7 +3988,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3996,7 +3999,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4007,7 +4010,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4029,7 +4032,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4040,7 +4043,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4051,7 +4054,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4062,7 +4065,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4073,7 +4076,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4084,7 +4087,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4095,7 +4098,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4106,7 +4109,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4128,7 +4131,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4139,7 +4142,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4150,7 +4153,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4161,7 +4164,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4172,7 +4175,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4194,7 +4197,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4271,7 +4274,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4282,7 +4285,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4293,7 +4296,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4315,7 +4318,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4337,7 +4340,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4348,7 +4351,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4381,7 +4384,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4403,7 +4406,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4425,7 +4428,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4458,7 +4461,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4480,7 +4483,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4491,23 +4494,23 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>627</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4518,40 +4521,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>605</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>628</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4562,40 +4565,40 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>627</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4606,29 +4609,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>629</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4672,117 +4675,117 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>630</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>631</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>634</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>633</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4804,51 +4807,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>637</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>641</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4859,40 +4862,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>640</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4903,40 +4906,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>642</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4958,7 +4961,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4969,7 +4972,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4980,7 +4983,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4991,7 +4994,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -5002,7 +5005,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -5013,84 +5016,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>648</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>647</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>650</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -5101,84 +5104,84 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>649</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>651</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>650</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>652</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>606</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>653</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -5189,7 +5192,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -5200,7 +5203,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -5211,7 +5214,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5222,29 +5225,29 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>652</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -5255,29 +5258,29 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5288,7 +5291,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5299,7 +5302,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5310,7 +5313,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -5321,18 +5324,18 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>226</v>
+        <v>660</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5343,29 +5346,29 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>660</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>229</v>
+        <v>661</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -5376,40 +5379,40 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>661</v>
+        <v>231</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>232</v>
+        <v>662</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>662</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
@@ -5420,18 +5423,18 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>235</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -5442,7 +5445,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
@@ -5453,7 +5456,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
@@ -5464,40 +5467,40 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>664</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>240</v>
+        <v>665</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>665</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
@@ -5508,7 +5511,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
@@ -5519,29 +5522,29 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>244</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B244" t="s">
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>668</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
@@ -5552,7 +5555,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
@@ -5563,29 +5566,29 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B247" t="s">
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>248</v>
+        <v>671</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>671</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B249" t="s">
         <v>250</v>
@@ -5596,7 +5599,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B250" t="s">
         <v>251</v>
@@ -5607,29 +5610,29 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B251" t="s">
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>252</v>
+        <v>674</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B252" t="s">
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>674</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
         <v>254</v>
@@ -5640,18 +5643,18 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B254" t="s">
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>255</v>
+        <v>676</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B255" t="s">
         <v>256</v>
@@ -5662,7 +5665,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B256" t="s">
         <v>257</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B257" t="s">
         <v>258</v>
@@ -5684,7 +5687,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B258" t="s">
         <v>259</v>
@@ -5695,18 +5698,18 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B259" t="s">
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>676</v>
+        <v>260</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B260" t="s">
         <v>261</v>
@@ -5717,7 +5720,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B261" t="s">
         <v>262</v>
@@ -5728,84 +5731,84 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B262" t="s">
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>263</v>
+        <v>679</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B263" t="s">
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>679</v>
+        <v>264</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B264" t="s">
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>265</v>
+        <v>680</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B265" t="s">
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>680</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B266" t="s">
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>267</v>
+        <v>681</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B267" t="s">
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>681</v>
+        <v>268</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B268" t="s">
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>269</v>
+        <v>682</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B269" t="s">
         <v>270</v>
@@ -5816,7 +5819,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B270" t="s">
         <v>271</v>
@@ -5827,7 +5830,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B271" t="s">
         <v>272</v>
@@ -5838,7 +5841,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B272" t="s">
         <v>273</v>
@@ -5849,18 +5852,18 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B273" t="s">
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>682</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B274" t="s">
         <v>275</v>
@@ -5871,29 +5874,29 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B275" t="s">
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>276</v>
+        <v>684</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B276" t="s">
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>684</v>
+        <v>277</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B277" t="s">
         <v>278</v>
@@ -5904,18 +5907,18 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B278" t="s">
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>279</v>
+        <v>686</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B279" t="s">
         <v>280</v>
@@ -5926,40 +5929,40 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B280" t="s">
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>686</v>
+        <v>281</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B281" t="s">
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>282</v>
+        <v>687</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B282" t="s">
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>687</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B283" t="s">
         <v>284</v>
@@ -5970,29 +5973,29 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B284" t="s">
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>285</v>
+        <v>689</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B285" t="s">
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>689</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B286" t="s">
         <v>287</v>
@@ -6003,51 +6006,51 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B287" t="s">
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>288</v>
+        <v>691</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B288" t="s">
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>691</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B289" t="s">
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>290</v>
+        <v>692</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B290" t="s">
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>692</v>
+        <v>291</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B291" t="s">
         <v>292</v>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B292" t="s">
         <v>293</v>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B293" t="s">
         <v>294</v>
@@ -6080,7 +6083,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B294" t="s">
         <v>295</v>
@@ -6091,51 +6094,51 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B295" t="s">
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>296</v>
+        <v>697</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B296" t="s">
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>697</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B297" t="s">
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>298</v>
+        <v>698</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B298" t="s">
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>698</v>
+        <v>299</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B299" t="s">
         <v>300</v>
@@ -6146,18 +6149,18 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B300" t="s">
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>301</v>
+        <v>700</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B301" t="s">
         <v>302</v>
@@ -6168,18 +6171,18 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B302" t="s">
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>700</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B303" t="s">
         <v>304</v>
@@ -6190,7 +6193,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B304" t="s">
         <v>305</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B305" t="s">
         <v>306</v>
@@ -6212,7 +6215,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B306" t="s">
         <v>307</v>
@@ -6223,29 +6226,29 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B307" t="s">
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>308</v>
+        <v>705</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B308" t="s">
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>705</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B309" t="s">
         <v>310</v>
@@ -6256,7 +6259,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B310" t="s">
         <v>311</v>
@@ -6267,18 +6270,18 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B311" t="s">
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>312</v>
+        <v>708</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B312" t="s">
         <v>313</v>
@@ -6289,18 +6292,18 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B313" t="s">
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>708</v>
+        <v>314</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B314" t="s">
         <v>315</v>
@@ -6311,29 +6314,29 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B315" t="s">
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>316</v>
+        <v>710</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B316" t="s">
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>710</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B317" t="s">
         <v>318</v>
@@ -6344,18 +6347,18 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B318" t="s">
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>319</v>
+        <v>712</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B319" t="s">
         <v>320</v>
@@ -6366,7 +6369,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B320" t="s">
         <v>321</v>
@@ -6377,40 +6380,40 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B321" t="s">
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>712</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B322" t="s">
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B323" t="s">
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B324" t="s">
         <v>325</v>
@@ -6421,62 +6424,62 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B325" t="s">
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>326</v>
+        <v>715</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B326" t="s">
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>715</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B327" t="s">
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>328</v>
+        <v>716</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B328" t="s">
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>716</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B329" t="s">
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>330</v>
+        <v>717</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B330" t="s">
         <v>331</v>
@@ -6487,18 +6490,18 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B331" t="s">
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>717</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B332" t="s">
         <v>333</v>
@@ -6509,18 +6512,18 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B333" t="s">
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>334</v>
+        <v>719</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B334" t="s">
         <v>335</v>
@@ -6531,18 +6534,18 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B335" t="s">
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>719</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B336" t="s">
         <v>337</v>
@@ -6553,7 +6556,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B337" t="s">
         <v>338</v>
@@ -6564,29 +6567,29 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B338" t="s">
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B339" t="s">
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>722</v>
+        <v>666</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B340" t="s">
         <v>341</v>
@@ -6597,18 +6600,18 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B341" t="s">
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>342</v>
+        <v>724</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B342" t="s">
         <v>343</v>
@@ -6619,7 +6622,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B343" t="s">
         <v>344</v>
@@ -6630,7 +6633,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B344" t="s">
         <v>345</v>
@@ -6641,18 +6644,18 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B345" t="s">
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>724</v>
+        <v>346</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B346" t="s">
         <v>347</v>
@@ -6663,7 +6666,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
@@ -6674,7 +6677,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B348" t="s">
         <v>349</v>
@@ -6685,7 +6688,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B349" t="s">
         <v>350</v>
@@ -6696,7 +6699,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B350" t="s">
         <v>351</v>
@@ -6707,7 +6710,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B351" t="s">
         <v>352</v>
@@ -6718,29 +6721,29 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B352" t="s">
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>353</v>
+        <v>731</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B353" t="s">
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>731</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B354" t="s">
         <v>355</v>
@@ -6751,18 +6754,18 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B355" t="s">
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>356</v>
+        <v>733</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B356" t="s">
         <v>357</v>
@@ -6773,7 +6776,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B357" t="s">
         <v>358</v>
@@ -6784,7 +6787,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
@@ -6795,7 +6798,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B359" t="s">
         <v>360</v>
@@ -6806,51 +6809,51 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>733</v>
+        <v>361</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B361" t="s">
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>362</v>
+        <v>734</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B362" t="s">
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>734</v>
+        <v>363</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B363" t="s">
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>364</v>
+        <v>735</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B364" t="s">
         <v>365</v>
@@ -6861,7 +6864,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B365" t="s">
         <v>366</v>
@@ -6872,7 +6875,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B366" t="s">
         <v>367</v>
@@ -6883,7 +6886,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B367" t="s">
         <v>368</v>
@@ -6894,40 +6897,40 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B368" t="s">
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>618</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B369" t="s">
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>735</v>
+        <v>619</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B370" t="s">
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>371</v>
+        <v>736</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B371" t="s">
         <v>372</v>
@@ -6938,7 +6941,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B372" t="s">
         <v>373</v>
@@ -6949,7 +6952,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B373" t="s">
         <v>374</v>
@@ -6960,7 +6963,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B374" t="s">
         <v>375</v>
@@ -6971,18 +6974,18 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B375" t="s">
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>736</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B376" t="s">
         <v>377</v>
@@ -6993,40 +6996,40 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="B377" t="s">
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>378</v>
+        <v>738</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B378" t="s">
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>561</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B379" t="s">
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>738</v>
+        <v>562</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B380" t="s">
         <v>381</v>
@@ -7037,18 +7040,18 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B381" t="s">
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>382</v>
+        <v>740</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B382" t="s">
         <v>383</v>
@@ -7059,18 +7062,18 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B383" t="s">
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>740</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B384" t="s">
         <v>385</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B385" t="s">
         <v>386</v>
@@ -7092,7 +7095,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B386" t="s">
         <v>387</v>
@@ -7103,7 +7106,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B387" t="s">
         <v>388</v>
@@ -7114,7 +7117,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B388" t="s">
         <v>389</v>
@@ -7125,51 +7128,51 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B389" t="s">
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>390</v>
+        <v>746</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B390" t="s">
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>746</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B391" t="s">
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>392</v>
+        <v>747</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B392" t="s">
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>747</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B393" t="s">
         <v>394</v>
@@ -7180,7 +7183,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B394" t="s">
         <v>395</v>
@@ -7191,40 +7194,40 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B395" t="s">
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>396</v>
+        <v>750</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B396" t="s">
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>750</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B397" t="s">
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B398" t="s">
         <v>399</v>
@@ -7235,40 +7238,40 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B399" t="s">
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>400</v>
+        <v>752</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B400" t="s">
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>737</v>
+        <v>401</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B401" t="s">
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>402</v>
+        <v>738</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B402" t="s">
         <v>403</v>
@@ -7279,18 +7282,18 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B403" t="s">
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>752</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -7301,18 +7304,18 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B405" t="s">
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>406</v>
+        <v>754</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B406" t="s">
         <v>407</v>
@@ -7323,7 +7326,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B407" t="s">
         <v>408</v>
@@ -7334,29 +7337,29 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B408" t="s">
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>754</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B409" t="s">
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>410</v>
+        <v>755</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B410" t="s">
         <v>411</v>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
@@ -7378,7 +7381,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B412" t="s">
         <v>413</v>
@@ -7389,40 +7392,40 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B413" t="s">
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>755</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B414" t="s">
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>415</v>
+        <v>756</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B415" t="s">
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>756</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
@@ -7433,7 +7436,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B417" t="s">
         <v>418</v>
@@ -7444,18 +7447,18 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B418" t="s">
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>419</v>
+        <v>759</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B419" t="s">
         <v>420</v>
@@ -7466,7 +7469,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B420" t="s">
         <v>421</v>
@@ -7477,29 +7480,29 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B421" t="s">
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>759</v>
+        <v>422</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B422" t="s">
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>423</v>
+        <v>760</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B423" t="s">
         <v>424</v>
@@ -7510,29 +7513,29 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B424" t="s">
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>760</v>
+        <v>425</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B425" t="s">
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>426</v>
+        <v>761</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B426" t="s">
         <v>427</v>
@@ -7543,18 +7546,18 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B427" t="s">
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>761</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B428" t="s">
         <v>429</v>
@@ -7565,7 +7568,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B429" t="s">
         <v>430</v>
@@ -7576,7 +7579,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B430" t="s">
         <v>431</v>
@@ -7587,18 +7590,18 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B431" t="s">
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>432</v>
+        <v>765</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B432" t="s">
         <v>433</v>
@@ -7609,29 +7612,29 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B433" t="s">
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>765</v>
+        <v>434</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B434" t="s">
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>435</v>
+        <v>766</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B435" t="s">
         <v>436</v>
@@ -7642,62 +7645,62 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B436" t="s">
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>766</v>
+        <v>437</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>438</v>
+        <v>767</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B438" t="s">
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>767</v>
+        <v>439</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B439" t="s">
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>440</v>
+        <v>768</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B440" t="s">
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>768</v>
+        <v>441</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B441" t="s">
         <v>442</v>
@@ -7708,18 +7711,18 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B442" t="s">
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>443</v>
+        <v>770</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B443" t="s">
         <v>444</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B444" t="s">
         <v>445</v>
@@ -7741,40 +7744,40 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B445" t="s">
         <v>446</v>
       </c>
       <c r="C445" t="s">
-        <v>770</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B446" t="s">
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>447</v>
+        <v>771</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B447" t="s">
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>771</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B448" t="s">
         <v>449</v>
@@ -7785,40 +7788,40 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B449" t="s">
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>450</v>
+        <v>773</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B450" t="s">
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>773</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B451" t="s">
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>452</v>
+        <v>774</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B452" t="s">
         <v>453</v>
@@ -7829,62 +7832,62 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B453" t="s">
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>774</v>
+        <v>454</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B454" t="s">
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>455</v>
+        <v>775</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="B455" t="s">
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>775</v>
+        <v>456</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B456" t="s">
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>457</v>
+        <v>776</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B457" t="s">
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>776</v>
+        <v>458</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B458" t="s">
         <v>459</v>
@@ -7895,7 +7898,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B459" t="s">
         <v>460</v>
@@ -7906,7 +7909,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B460" t="s">
         <v>461</v>
@@ -7917,7 +7920,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B461" t="s">
         <v>462</v>
@@ -7928,7 +7931,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B462" t="s">
         <v>463</v>
@@ -7939,51 +7942,51 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B463" t="s">
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>464</v>
+        <v>782</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B464" t="s">
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>782</v>
+        <v>465</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B465" t="s">
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>466</v>
+        <v>783</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B466" t="s">
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>783</v>
+        <v>467</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B467" t="s">
         <v>468</v>
@@ -7994,18 +7997,18 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B468" t="s">
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>469</v>
+        <v>785</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B469" t="s">
         <v>470</v>
@@ -8016,7 +8019,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B470" t="s">
         <v>471</v>
@@ -8027,40 +8030,40 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B471" t="s">
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>785</v>
+        <v>472</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B472" t="s">
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>473</v>
+        <v>786</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B473" t="s">
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>786</v>
+        <v>474</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B474" t="s">
         <v>475</v>
@@ -8071,7 +8074,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B475" t="s">
         <v>476</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B476" t="s">
         <v>477</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B477" t="s">
         <v>478</v>
@@ -8104,18 +8107,18 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B478" t="s">
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>479</v>
+        <v>791</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B479" t="s">
         <v>480</v>
@@ -8126,40 +8129,40 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B480" t="s">
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>791</v>
+        <v>481</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B481" t="s">
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>605</v>
+        <v>792</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B482" t="s">
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>483</v>
+        <v>606</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B483" t="s">
         <v>484</v>
@@ -8170,29 +8173,29 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B484" t="s">
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>792</v>
+        <v>485</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B485" t="s">
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>486</v>
+        <v>793</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B486" t="s">
         <v>487</v>
@@ -8203,7 +8206,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="B487" t="s">
         <v>488</v>
@@ -8214,18 +8217,18 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B488" t="s">
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>793</v>
+        <v>489</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B489" t="s">
         <v>490</v>
@@ -8236,7 +8239,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B490" t="s">
         <v>491</v>
@@ -8247,7 +8250,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B491" t="s">
         <v>492</v>
@@ -8258,18 +8261,18 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B492" t="s">
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>493</v>
+        <v>797</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B493" t="s">
         <v>494</v>
@@ -8280,7 +8283,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B494" t="s">
         <v>495</v>
@@ -8291,40 +8294,40 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B495" t="s">
         <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>797</v>
+        <v>496</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B496" t="s">
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>497</v>
+        <v>798</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B497" t="s">
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>798</v>
+        <v>498</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B498" t="s">
         <v>499</v>
@@ -8335,7 +8338,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B499" t="s">
         <v>500</v>
@@ -8346,7 +8349,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B500" t="s">
         <v>501</v>
@@ -8357,29 +8360,29 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B501" t="s">
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B502" t="s">
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B503" t="s">
         <v>504</v>
@@ -8390,40 +8393,40 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B504" t="s">
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B505" t="s">
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>506</v>
+        <v>793</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B506" t="s">
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>804</v>
+        <v>507</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B507" t="s">
         <v>508</v>
@@ -8434,29 +8437,29 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B508" t="s">
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>509</v>
+        <v>806</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B509" t="s">
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>806</v>
+        <v>510</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B510" t="s">
         <v>511</v>
@@ -8467,7 +8470,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B511" t="s">
         <v>512</v>
@@ -8478,29 +8481,29 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B512" t="s">
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>513</v>
+        <v>809</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B513" t="s">
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>809</v>
+        <v>514</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B514" t="s">
         <v>515</v>
@@ -8511,18 +8514,18 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B515" t="s">
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>516</v>
+        <v>811</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B516" t="s">
         <v>517</v>
@@ -8533,29 +8536,29 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B517" t="s">
         <v>518</v>
       </c>
       <c r="C517" t="s">
-        <v>811</v>
+        <v>518</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B518" t="s">
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>519</v>
+        <v>812</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B519" t="s">
         <v>520</v>
@@ -8566,7 +8569,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B520" t="s">
         <v>521</v>
@@ -8577,7 +8580,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B521" t="s">
         <v>522</v>
@@ -8588,18 +8591,18 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B522" t="s">
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>812</v>
+        <v>523</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B523" t="s">
         <v>524</v>
@@ -8610,7 +8613,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B524" t="s">
         <v>525</v>
@@ -8621,18 +8624,18 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B525" t="s">
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>526</v>
+        <v>815</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B526" t="s">
         <v>527</v>
@@ -8643,18 +8646,18 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B527" t="s">
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>815</v>
+        <v>528</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B528" t="s">
         <v>529</v>
@@ -8665,29 +8668,29 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B529" t="s">
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>530</v>
+        <v>817</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B530" t="s">
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>817</v>
+        <v>531</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B531" t="s">
         <v>532</v>
@@ -8698,7 +8701,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B532" t="s">
         <v>533</v>
@@ -8709,7 +8712,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="B533" t="s">
         <v>534</v>
@@ -8720,18 +8723,18 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B534" t="s">
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>535</v>
+        <v>821</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B535" t="s">
         <v>536</v>
@@ -8742,7 +8745,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B536" t="s">
         <v>537</v>
@@ -8753,18 +8756,18 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B537" t="s">
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>821</v>
+        <v>538</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B538" t="s">
         <v>539</v>
@@ -8775,29 +8778,29 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B539" t="s">
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>540</v>
+        <v>823</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B540" t="s">
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>823</v>
+        <v>541</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B541" t="s">
         <v>542</v>
@@ -8808,7 +8811,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B542" t="s">
         <v>543</v>
@@ -8819,18 +8822,18 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B543" t="s">
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>544</v>
+        <v>826</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B544" t="s">
         <v>545</v>
@@ -8841,7 +8844,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B545" t="s">
         <v>546</v>
@@ -8852,35 +8855,46 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B546" t="s">
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>769</v>
+        <v>547</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B547" t="s">
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B548" t="s">
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>608</v>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549">
+        <v>997</v>
+      </c>
+      <c r="B549" t="s">
+        <v>550</v>
+      </c>
+      <c r="C549" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
